--- a/medicine/Bioéthique/David_Pearce/David_Pearce.xlsx
+++ b/medicine/Bioéthique/David_Pearce/David_Pearce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Pearce est un philosophe utilitariste et transhumaniste britannique né à Brighton en Angleterre. Il est le cofondateur en 1998 de la World Transhumanist Association, appelée aussi Humanity+, et de la Abolitionist Society en 2002. Il est l'un des principaux promoteurs du transhumanisme, ainsi que de l'« impératif hédoniste », exigence morale selon laquelle les êtres humains doivent travailler à la réduction – voire à l'abolition – de la souffrance pour tous les organismes dotés de sensibilité (sentient beings).
 Son manifeste, publié en ligne sur Internet, The Hedonistic Imperative (1995), cherche à montrer comment des technologies telles que l'ingénierie génétique, les nanotechnologies, la pharmacologie ou la neurochirurgie peuvent converger afin d'éradiquer toute forme d'insatisfaction parmi les êtres sensibles, êtres humains y compris. Ce manifeste peut donc proposer des pistes de réflexions pour faire face au paradoxe de l'hédonisme.
@@ -513,7 +525,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bien-être
 Bonheur
